--- a/medicine/Psychotrope/Vignoble_de_l'Ahr/Vignoble_de_l'Ahr.xlsx
+++ b/medicine/Psychotrope/Vignoble_de_l'Ahr/Vignoble_de_l'Ahr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vignoble_de_l%27Ahr</t>
+          <t>Vignoble_de_l'Ahr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vignoble de l'Ahr est une région viticole allemande situé le long de la rivière du même nom, d'Altenahr à Heimersheim, non loin de Bonn. Avec 529 hectares plantés en 2022, c'est l'une des plus petites des 13 régions de production de vin de qualité en Allemagne.[1] Les vins de table sont vendus sous le nom « Rhein-Mosel » et les vins de qualité intermédiaire sous le nom « Ahrtaler Landwein ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble de l'Ahr est une région viticole allemande situé le long de la rivière du même nom, d'Altenahr à Heimersheim, non loin de Bonn. Avec 529 hectares plantés en 2022, c'est l'une des plus petites des 13 régions de production de vin de qualité en Allemagne. Les vins de table sont vendus sous le nom « Rhein-Mosel » et les vins de qualité intermédiaire sous le nom « Ahrtaler Landwein ».
 Le climat de la région n'est de nos jours pas particulièrement favorable à la vigne mais sa culture a pu se maintenir sur la rive gauche de l'Ahr, exposée au sud et protégée par le massif de l'Eifel qui limite les précipitations et permet un ensoleillement plus important.
 Alors que la viticulture allemande est dominée par les blancs, les vins de l'Ahr sont principalement rouges, ce qui en fait, malgré sa petite taille, la plus grande zone de production de vins rouges d'un seul tenant en Allemagne. Le cépage le plus courant est de loin le pinot noir (Spätburgunder) avec plus de 60 % des surfaces.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vignoble_de_l%27Ahr</t>
+          <t>Vignoble_de_l'Ahr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de la vigne est attestée dans la vallée de l'Ahr à partir de la seconde moitié du VIIIe siècle. Les vignes appartiennent à plusieurs abbayes, notamment celle de Prüm et à différentes familles de la noblesse. Au XVe siècle, la région est sous l'autorité de l'archevêque-électeur de Cologne auxquels la ville d'Ahrweiler doit livrer chaque année 30 tonnelets (Fuder à mille litre) de vin.
 Les cépages noirs ne sont plantés qu'à partir de la guerre de Trente Ans. Le pinot noir est alors vinifié comme un vin blanc et produit un vin rose pâle, nommé Ahrbleichert.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vignoble_de_l%27Ahr</t>
+          <t>Vignoble_de_l'Ahr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les cépages cultivés, seuls cinq ont une importance commerciale. La part de ces différents cépages est indiquée dans le tableau suivant.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vignoble_de_l%27Ahr</t>
+          <t>Vignoble_de_l'Ahr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Ahr (Weinbaugebiet) » (voir la liste des auteurs).</t>
         </is>
